--- a/Datasheets/DSOX2002A.xlsx
+++ b/Datasheets/DSOX2002A.xlsx
@@ -145,11 +145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -159,10 +159,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -172,10 +172,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,16 +881,15 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="7"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -902,19 +901,15 @@
         <f>Target_Values!B1</f>
         <v/>
       </c>
-      <c r="C1" s="12" t="n">
+      <c r="C1" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="4" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -925,27 +920,19 @@
         <f>Target_Values!B2</f>
         <v/>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>DSOX2002A</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
         <is>
           <t>DSOX2002A</t>
         </is>
       </c>
-      <c r="E2" s="18" t="inlineStr">
-        <is>
-          <t>DSOX2002A</t>
-        </is>
-      </c>
-      <c r="F2" s="18" t="inlineStr">
-        <is>
-          <t>DSOX2002A</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="n"/>
+      <c r="E2" s="13" t="n"/>
+      <c r="F2" s="13" t="n"/>
+      <c r="G2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -956,19 +943,15 @@
         <f>Target_Values!B3</f>
         <v/>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="19" t="n">
         <v>70</v>
       </c>
-      <c r="E3" s="19" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" s="19" t="n">
-        <v>70</v>
-      </c>
-      <c r="G3" s="9" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
+      <c r="G3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -979,19 +962,15 @@
         <f>Target_Values!B4</f>
         <v/>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="n"/>
+      <c r="E4" s="13" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -1002,19 +981,15 @@
         <f>Target_Values!B5</f>
         <v/>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -1025,19 +1000,15 @@
         <f>Target_Values!B6</f>
         <v/>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7" ht="45" customHeight="1">
       <c r="A7" s="1">
@@ -1048,27 +1019,19 @@
         <f>Target_Values!B7</f>
         <v/>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Edge, Edge then edge (B trigger), Nth edge burst, Pattern, Pulse width, Rise/fall time, Runt, Video</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="20" t="inlineStr">
         <is>
           <t>Edge, Edge then edge, Nth edge burst, Pattern, Pulse width, Rise/fall time, Runt, Video</t>
         </is>
       </c>
-      <c r="E7" s="19" t="inlineStr">
-        <is>
-          <t>Edge, Edge then edge, Nth edge burst, Pattern, Pulse width, Rise/fall time, Runt, Video</t>
-        </is>
-      </c>
-      <c r="F7" s="19" t="inlineStr">
-        <is>
-          <t>CAN, Edge, Edge then edge, I2C, LIN, Nth edge burst, Pattern, Pulse width, Rise/fall time, RS232/422/485/UART, Runt, SPI, Video</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -1079,19 +1042,15 @@
         <f>Target_Values!B8</f>
         <v/>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" s="8" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -1102,19 +1061,15 @@
         <f>Target_Values!B9</f>
         <v/>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -1125,19 +1080,15 @@
         <f>Target_Values!B10</f>
         <v/>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="8" t="n">
         <v>21.59</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="18" t="n">
         <v>21.59</v>
       </c>
-      <c r="E10" s="18" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="F10" s="18" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="G10" s="8" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -1148,27 +1099,19 @@
         <f>Target_Values!B11</f>
         <v/>
       </c>
-      <c r="C11" s="14" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>800, 480</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
+      <c r="D11" s="19" t="inlineStr">
         <is>
           <t>800, 480</t>
         </is>
       </c>
-      <c r="E11" s="19" t="inlineStr">
-        <is>
-          <t>800, 480</t>
-        </is>
-      </c>
-      <c r="F11" s="19" t="inlineStr">
-        <is>
-          <t>800, 480</t>
-        </is>
-      </c>
-      <c r="G11" s="9" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -1179,27 +1122,19 @@
         <f>Target_Values!B12</f>
         <v/>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>WVGA color TFT LCD</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="18" t="inlineStr">
         <is>
           <t>WVGA color TFT LCD</t>
         </is>
       </c>
-      <c r="E12" s="18" t="inlineStr">
-        <is>
-          <t>WVGA color TFT LCD</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
-        <is>
-          <t>WVGA color TFT LCD</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -1210,27 +1145,19 @@
         <f>Target_Values!B13</f>
         <v/>
       </c>
-      <c r="C13" s="15" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>USB 2.0 device, USB 2.0 host</t>
         </is>
       </c>
-      <c r="D13" s="14" t="inlineStr">
+      <c r="D13" s="19" t="inlineStr">
         <is>
           <t>USB 2.0 Device, USB 2.0 Host</t>
         </is>
       </c>
-      <c r="E13" s="19" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="F13" s="19" t="inlineStr">
-        <is>
-          <t>USB 2.0</t>
-        </is>
-      </c>
-      <c r="G13" s="9" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="14" t="n"/>
+      <c r="G13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -1241,27 +1168,19 @@
         <f>Target_Values!B14</f>
         <v/>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>GPIB, LAN, WVGA video out</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>GPIB, LAN, WVGA video out</t>
-        </is>
-      </c>
-      <c r="E14" s="19" t="inlineStr">
-        <is>
-          <t>GPIB, LAN, WVGA</t>
-        </is>
-      </c>
-      <c r="F14" s="19" t="inlineStr">
+      <c r="D14" s="19" t="inlineStr">
         <is>
           <t>GPIB, LAN, VGA</t>
         </is>
       </c>
-      <c r="G14" s="9" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="14" t="n"/>
+      <c r="G14" s="6" t="n"/>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="1">
@@ -1272,27 +1191,19 @@
         <f>Target_Values!B15</f>
         <v/>
       </c>
-      <c r="C15" s="14" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>CAN, I2C, LIN, RS232, RS422, RS485, SPI, UART</t>
         </is>
       </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>CAN, I2C, LIN, RS232, RS422, RS485, SPI, UART</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="inlineStr">
-        <is>
-          <t>CAN, I2C, LIN, RS232, RS422, RS485, SPI, UART</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>CAN, I2C, LIN, RS232, RS422, RS485, SPI, UART</t>
-        </is>
-      </c>
-      <c r="G15" s="9" t="n"/>
+      <c r="D15" s="19" t="inlineStr">
+        <is>
+          <t>CAN, I2C, LIN, RS232, SPI, UART</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="n"/>
+      <c r="F15" s="14" t="n"/>
+      <c r="G15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
@@ -1303,19 +1214,15 @@
         <f>Target_Values!B16</f>
         <v/>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="8" t="n">
         <v>200000</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="18" t="n">
         <v>200000</v>
       </c>
-      <c r="E16" s="18" t="n">
-        <v>200000</v>
-      </c>
-      <c r="F16" s="18" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G16" s="8" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -1326,27 +1233,19 @@
         <f>Target_Values!B17</f>
         <v/>
       </c>
-      <c r="C17" s="13" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E17" s="18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" s="8" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -1357,27 +1256,19 @@
         <f>Target_Values!B18</f>
         <v/>
       </c>
-      <c r="C18" s="13" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>Optional</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="18" t="inlineStr">
         <is>
           <t>Optional</t>
         </is>
       </c>
-      <c r="E18" s="18" t="inlineStr">
-        <is>
-          <t>Optional</t>
-        </is>
-      </c>
-      <c r="F18" s="18" t="inlineStr">
-        <is>
-          <t>Optional</t>
-        </is>
-      </c>
-      <c r="G18" s="8" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -1388,27 +1279,19 @@
         <f>Target_Values!B19</f>
         <v/>
       </c>
-      <c r="C19" s="13" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E19" s="18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F19" s="18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" s="8" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -1419,27 +1302,19 @@
         <f>Target_Values!B20</f>
         <v/>
       </c>
-      <c r="C20" s="16" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D20" s="16" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E20" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F20" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="8" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
+      <c r="G20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
@@ -1450,27 +1325,19 @@
         <f>Target_Values!B21</f>
         <v/>
       </c>
-      <c r="C21" s="16" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>MegaZoom IV technology, Fully upgradable bandwidth</t>
         </is>
       </c>
-      <c r="D21" s="16" t="inlineStr">
-        <is>
-          <t>MegaZoom IV custom ASIC technology, 5 instruments in 1, fully upgradable</t>
-        </is>
-      </c>
-      <c r="E21" s="20" t="inlineStr">
-        <is>
-          <t>Fully upgradable (bandwidth, digital channels, WaveGen, serial decodes), MegaZoom IV custom ASIC technology</t>
-        </is>
-      </c>
-      <c r="F21" s="20" t="inlineStr">
-        <is>
-          <t>Fully Upgradable Oscilloscope, MegaZoom IV custom ASIC technology</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="n"/>
+      <c r="D21" s="21" t="inlineStr">
+        <is>
+          <t>MegaZoom IV custom ASIC technology, hardware-based serial protocol decoding, fully upgradable</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
@@ -1481,27 +1348,19 @@
         <f>Target_Values!B22</f>
         <v/>
       </c>
-      <c r="C22" s="15" t="inlineStr">
+      <c r="C22" s="10" t="inlineStr">
         <is>
           <t>142, 381, 204</t>
         </is>
       </c>
-      <c r="D22" s="15" t="inlineStr">
+      <c r="D22" s="20" t="inlineStr">
         <is>
           <t>142, 381, 204</t>
         </is>
       </c>
-      <c r="E22" s="21" t="inlineStr">
-        <is>
-          <t>142, 381, 204</t>
-        </is>
-      </c>
-      <c r="F22" s="21" t="inlineStr">
-        <is>
-          <t>142, 381, 204</t>
-        </is>
-      </c>
-      <c r="G22" s="9" t="n"/>
+      <c r="E22" s="16" t="n"/>
+      <c r="F22" s="16" t="n"/>
+      <c r="G22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
@@ -1512,19 +1371,15 @@
         <f>Target_Values!B23</f>
         <v/>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="11" t="n">
         <v>3.9</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="21" t="n">
         <v>3.9</v>
       </c>
-      <c r="E23" s="20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F23" s="20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G23" s="8" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
@@ -1535,11 +1390,11 @@
         <f>Target_Values!B24</f>
         <v/>
       </c>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="18" t="n"/>
-      <c r="F24" s="18" t="n"/>
-      <c r="G24" s="8" t="n"/>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="18" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
@@ -1550,30 +1405,22 @@
         <f>Target_Values!B25</f>
         <v/>
       </c>
-      <c r="C25" s="13" t="inlineStr">
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>DSOX2002A</t>
         </is>
       </c>
-      <c r="D25" s="13" t="inlineStr">
+      <c r="D25" s="18" t="inlineStr">
         <is>
           <t>DSOX2002A</t>
         </is>
       </c>
-      <c r="E25" s="18" t="inlineStr">
-        <is>
-          <t>DSOX2002A</t>
-        </is>
-      </c>
-      <c r="F25" s="18" t="inlineStr">
-        <is>
-          <t>DSOX2002A</t>
-        </is>
-      </c>
-      <c r="G25" s="8" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="5" t="n"/>
     </row>
     <row r="30" ht="409.5" customHeight="1">
-      <c r="C30" s="14" t="inlineStr">
+      <c r="C30" s="9" t="inlineStr">
         <is>
           <t>{
   "Modell": {
@@ -1771,13 +1618,13 @@
 }</t>
         </is>
       </c>
-      <c r="D30" s="14" t="inlineStr">
+      <c r="D30" s="19" t="inlineStr">
         <is>
           <t>{
   "Modell": {
     "value": "DSOX2002A",
     "source_page": 20,
-    "source_region": "InfiniiVision 2000 X-Series scopes ... 2002A",
+    "source_region": "InfiniiVision 2000 X-Series scopes... 2002A",
     "confidence": "high"
   },
   "Bandbreite": {
@@ -1785,28 +1632,28 @@
       "70"
     ],
     "unit": "MHz",
-    "source_page": 20,
-    "source_region": "2002A ... Bandwidth (-3 dB) ... 70 MHz",
+    "source_page": 22,
+    "source_region": "Bandwidth (-3 dB)... 70 MHz",
     "confidence": "high"
   },
   "Anzahl Kanäle": {
     "value": 2,
     "source_page": 20,
-    "source_region": "2002A ... DSOX Input channels ... 2",
+    "source_region": "DSOX Input channels... 2",
     "confidence": "high"
   },
   "Samplerate": {
     "value": 2,
     "unit": "GSa/s",
     "source_page": 22,
-    "source_region": "Maximum sample rate 1 ... 2 GSa/s half-channel interleaved",
+    "source_region": "Maximum sample rate 1... 2 GSa/s half-channel interleaved, 1 GSa/s per channel",
     "confidence": "high"
   },
   "Speichertiefe": {
     "value": 1,
     "unit": "Mpts",
     "source_page": 22,
-    "source_region": "Maximum memory depth ... 1M points per channel (standard)",
+    "source_region": "Maximum memory depth... 1M points per channel (standard)",
     "confidence": "high"
   },
   "Triggerarten": {
@@ -1821,27 +1668,27 @@
       "Nth edge burst"
     ],
     "source_page": 23,
-    "source_region": "Trigger type selections ... Edge ... Edge then edge ... Pulse width ... Pattern ... Video ... Runt Trigger ... Rise/fall time ... Nth edge burst",
+    "source_region": "Trigger type selections... Edge... Edge then edge... Pulse width... Pattern... Video... Runt Trigger... Rise/fall time... Nth edge burst",
     "confidence": "high"
   },
   "Vertikale Auflösung": {
     "value": 8,
     "unit": "bit",
     "source_page": 22,
-    "source_region": "Vertical resolution ... 8 bits",
+    "source_region": "Vertical resolution... 8 bits (measurement resolution is 12 bits with averaging)",
     "confidence": "high"
   },
   "Anzahl Digitalkanäle": {
     "value": 0,
-    "source_page": 4,
-    "source_region": "Digital channels ... 8 (MSO models or upgrade)",
+    "source_page": 20,
+    "source_region": "DSOX Input channels... 2",
     "confidence": "high"
   },
   "Bildschirmgröße": {
     "value": 21.59,
     "unit": "cm",
     "source_page": 22,
-    "source_region": "Display size and type ... 8.5-inch WVGA",
+    "source_region": "Display size and type... 8.5-inch WVGA",
     "confidence": "high"
   },
   "Bildschirmtyp": {
@@ -1851,424 +1698,25 @@
         480
       ],
       "unit": "pixels",
-      "source_page": 25,
-      "source_region": "Resolution ... 800 (H) x 480 ( V) pixel format",
+      "source_page": 22,
+      "source_region": "Resolution... 800 (H) x 480 ( V) pixel format",
       "confidence": "high"
     },
     "screen_type": {
       "value": "WVGA color TFT LCD",
-      "source_page": 25,
-      "source_region": "Display ... 8.5-inch WVGA color TFT LCD",
+      "source_page": 22,
+      "source_region": "Display... 8.5-inch WVGA color TFT LCD",
       "confidence": "high"
     }
   },
   "Schnittstellen": {
     "relevant_interfaces": {
       "value": [
-        "USB 2.0 Host",
-        "USB 2.0 Device"
+        "USB 2.0 Device",
+        "USB 2.0 Host"
       ],
       "source_page": 27,
-      "source_region": "One USB 2.0 hi-speed device port ... Two USB 2.0 hi-speed host ports",
-      "confidence": "high"
-    },
-    "optionale_interfaces": {
-      "value": [
-        "GPIB",
-        "LAN",
-        "WVGA video out"
-      ],
-      "source_page": 27,
-      "source_region": "Optional ports ... GPIB, LAN, WVGA video out",
-      "confidence": "high"
-    }
-  },
-  "unterstützende serielle Busse": {
-    "value": [
-      "I2C",
-      "SPI",
-      "CAN",
-      "LIN",
-      "RS232",
-      "UART",
-      "RS422",
-      "RS485"
-    ],
-    "source_page": 24,
-    "source_region": "I2C (optional) ... SPI (optional) ... CAN (optional) ... LIN (optional) ... RS232/422/485/UART (optional)",
-    "confidence": "high"
-  },
-  "Signalerfassungsrate": {
-    "value": 200000,
-    "unit": "wfms/s",
-    "source_page": 22,
-    "source_region": "Waveform update rate ... 200,000 waveforms per second",
-    "confidence": "high"
-  },
-  "segmentierbarer Speicher": {
-    "value": "Yes",
-    "source_page": 4,
-    "source_region": "Segmented memory ... Yes (standard on DSO model)",
-    "confidence": "high"
-  },
-  "Funktionsgenerator": {
-    "value": "Optional",
-    "source_page": 4,
-    "source_region": "WaveGen 20-MHz function/ arbitrary waveform generator ... Single-channel function only (option)",
-    "confidence": "high"
-  },
-  "DVM": {
-    "value": "Yes",
-    "source_page": 4,
-    "source_region": "Integrated digital voltmeter (standard) ... Yes",
-    "confidence": "high"
-  },
-  "Counter": {
-    "value": "Yes",
-    "source_page": 4,
-    "source_region": "Integrated hardware counter (standard) ... 5-digit frequency counter",
-    "confidence": "high"
-  },
-  "Besonderheiten": {
-    "value": "MegaZoom IV custom ASIC technology, 5 instruments in 1, fully upgradable",
-    "source_page": 6,
-    "source_region": "MegaZoom IV custom ASIC technology ... 5 instruments in 1 ... fully upgradable",
-    "confidence": "high"
-  },
-  "Abmessungen (L x B x H) (mm)": {
-    "value": [
-      142,
-      381,
-      204
-    ],
-    "unit": "mm",
-    "source_page": 28,
-    "source_region": "Dimensions (W x H x D) ... 381 mm (15 in) x 204 mm (8 in) x 142 mm (5.6 in)",
-    "confidence": "high"
-  },
-  "Gewicht (kg)": {
-    "value": 3.9,
-    "unit": "kg",
-    "source_page": 28,
-    "source_region": "Weight ... Net: 3.9 kg",
-    "confidence": "high"
-  },
-  "Garantie (Jahre)": {
-    "value": null,
-    "unit": null,
-    "source_page": null,
-    "source_region": "Nicht gefunden",
-    "confidence": "low"
-  },
-  "Artikelnummer": {
-    "value": "DSOX2002A",
-    "source_page": 20,
-    "source_region": "InfiniiVision 2000 X-Series scopes ... 2002A ... DSOX ... Input channels 2",
-    "confidence": "high"
-  }
-}</t>
-        </is>
-      </c>
-      <c r="E30" s="19" t="inlineStr">
-        <is>
-          <t>{
-  "Modell": {
-    "value": "DSOX2002A",
-    "source_page": 20,
-    "source_region": "DSOX 2002A",
-    "confidence": "high"
-  },
-  "Bandbreite": {
-    "value": [
-      "70"
-    ],
-    "unit": "MHz",
-    "source_page": 20,
-    "source_region": "Bandwidth (-3 dB) 70 MHz",
-    "confidence": "high"
-  },
-  "Anzahl Kanäle": {
-    "value": 2,
-    "source_page": 20,
-    "source_region": "Input channels 2",
-    "confidence": "high"
-  },
-  "Samplerate": {
-    "value": 2,
-    "unit": "GSa/s",
-    "source_page": 22,
-    "source_region": "Maximum sample rate 1 2 GSa/s half-channel interleaved, 1 GSa/s per channel",
-    "confidence": "high"
-  },
-  "Speichertiefe": {
-    "value": 1,
-    "unit": "Mpts",
-    "source_page": 22,
-    "source_region": "Maximum memory depth 1M points per channel (standard)",
-    "confidence": "high"
-  },
-  "Triggerarten": {
-    "value": [
-      "Edge",
-      "Edge then edge",
-      "Pulse width",
-      "Pattern",
-      "Video",
-      "Runt",
-      "Rise/fall time",
-      "Nth edge burst"
-    ],
-    "source_page": 24,
-    "source_region": "Trigger type selections ... Edge ... Edge then edge (B trigger) ... Pulse width ... Pattern ... Video ... Runt Trigger ... Rise/fall time ... Nth edge burst",
-    "confidence": "high"
-  },
-  "Vertikale Auflösung": {
-    "value": 8,
-    "unit": "bit",
-    "source_page": 22,
-    "source_region": "Vertical resolution 8 bits (measurement resolution is 12 bits with averaging)",
-    "confidence": "high"
-  },
-  "Anzahl Digitalkanäle": {
-    "value": 0,
-    "source_page": 20,
-    "source_region": "MSOX 2+8 (MSO models or upgrade)",
-    "confidence": "high"
-  },
-  "Bildschirmgröße": {
-    "value": 21.59,
-    "unit": "cm",
-    "source_page": 22,
-    "source_region": "Display size and type 8.5-inch WVGA",
-    "confidence": "high"
-  },
-  "Bildschirmtyp": {
-    "pixel": {
-      "value": [
-        800,
-        480
-      ],
-      "unit": "pixels",
-      "source_page": 25,
-      "source_region": "Resolution 800 (H) x 480 ( V) pixel format",
-      "confidence": "high"
-    },
-    "screen_type": {
-      "value": "WVGA color TFT LCD",
-      "source_page": 25,
-      "source_region": "Display 8.5-inch WVGA color TFT LCD",
-      "confidence": "high"
-    }
-  },
-  "Schnittstellen": {
-    "relevant_interfaces": {
-      "value": [
-        "USB"
-      ],
-      "source_page": 27,
-      "source_region": "One USB 2.0 hi-speed device port on rear panel. ... Two USB 2.0 hi-speed host ports, front and rear panel",
-      "confidence": "high"
-    },
-    "optionale_interfaces": {
-      "value": [
-        "GPIB",
-        "LAN",
-        "WVGA"
-      ],
-      "source_page": 27,
-      "source_region": "Optional ports GPIB, LAN, WVGA video out",
-      "confidence": "high"
-    }
-  },
-  "unterstützende serielle Busse": {
-    "value": [
-      "I2C",
-      "SPI",
-      "CAN",
-      "LIN",
-      "RS232",
-      "RS422",
-      "RS485",
-      "UART"
-    ],
-    "source_page": 24,
-    "source_region": "I2C (optional) ... SPI (optional) ... CAN (optional) ... LIN (optional) ... RS232/422/485/UART (optional)",
-    "confidence": "high"
-  },
-  "Signalerfassungsrate": {
-    "value": 200000,
-    "unit": "wfms/s",
-    "source_page": 22,
-    "source_region": "Waveform update rate 200,000 waveforms per second",
-    "confidence": "high"
-  },
-  "segmentierbarer Speicher": {
-    "value": "Yes",
-    "source_page": 4,
-    "source_region": "Segmented memory Yes (standard on DSO model)",
-    "confidence": "high"
-  },
-  "Funktionsgenerator": {
-    "value": "Optional",
-    "source_page": 4,
-    "source_region": "WaveGen 20-MHz function/ arbitrary waveform generator Single-channel function only (option)",
-    "confidence": "high"
-  },
-  "DVM": {
-    "value": "Yes",
-    "source_page": 4,
-    "source_region": "Integrated digital voltmeter (standard) Yes",
-    "confidence": "high"
-  },
-  "Counter": {
-    "value": "Yes",
-    "source_page": 4,
-    "source_region": "Integrated hardware counter (standard) 5-digit frequency counter",
-    "confidence": "high"
-  },
-  "Besonderheiten": {
-    "value": "Fully upgradable (bandwidth, digital channels, WaveGen, serial decodes), MegaZoom IV custom ASIC technology",
-    "source_page": 9,
-    "source_region": "With the 2000 X-Series, your investment is protected. If you need more bandwidth (up to 200 MHz), digital channels, WaveGen, or serial decodes in the future, you can easily add them all after the fact.",
-    "confidence": "high"
-  },
-  "Abmessungen (L x B x H) (mm)": {
-    "value": [
-      142,
-      381,
-      204
-    ],
-    "unit": "mm",
-    "source_page": 28,
-    "source_region": "Dimensions (W x H x D) 381 mm (15 in) x 204 mm (8 in) x 142 mm (5.6 in)",
-    "confidence": "high"
-  },
-  "Gewicht (kg)": {
-    "value": 3.9,
-    "unit": "kg",
-    "source_page": 28,
-    "source_region": "Weight Net: 3.9 kg (8.5 lbs.)",
-    "confidence": "high"
-  },
-  "Garantie (Jahre)": {
-    "value": null,
-    "unit": null,
-    "source_page": null,
-    "source_region": "Nicht gefunden",
-    "confidence": "low"
-  },
-  "Artikelnummer": {
-    "value": "DSOX2002A",
-    "source_page": 20,
-    "source_region": "Model number ... DSOX2002A",
-    "confidence": "high"
-  }
-}</t>
-        </is>
-      </c>
-      <c r="F30" s="19" t="inlineStr">
-        <is>
-          <t>{
-  "Modell": {
-    "value": "DSOX2002A",
-    "source_page": 20,
-    "source_region": "2002A ... 70 MHz ... 2",
-    "confidence": "high"
-  },
-  "Bandbreite": {
-    "value": [
-      "70"
-    ],
-    "unit": "MHz",
-    "source_page": 20,
-    "source_region": "Bandwidth (-3 dB) ... 70 MHz",
-    "confidence": "high"
-  },
-  "Anzahl Kanäle": {
-    "value": 2,
-    "source_page": 20,
-    "source_region": "DSOX Input channels ... 2",
-    "confidence": "high"
-  },
-  "Samplerate": {
-    "value": 2,
-    "unit": "GSa/s",
-    "source_page": 22,
-    "source_region": "Maximum sample rate 1 ... 2 GSa/s half-channel interleaved",
-    "confidence": "high"
-  },
-  "Speichertiefe": {
-    "value": 1,
-    "unit": "Mpts",
-    "source_page": 22,
-    "source_region": "Maximum memory depth ... 1M points per channel (standard)",
-    "confidence": "high"
-  },
-  "Triggerarten": {
-    "value": [
-      "Edge",
-      "Edge then edge",
-      "Pulse width",
-      "Pattern",
-      "Video",
-      "Runt",
-      "Rise/fall time",
-      "Nth edge burst",
-      "I2C",
-      "SPI",
-      "CAN",
-      "LIN",
-      "RS232/422/485/UART"
-    ],
-    "source_page": 23,
-    "source_region": "Trigger type selections ... Edge ... Edge then edge ... Pulse width ... Pattern ... Video ... Runt Trigger ... Rise/fall time ... Nth edge burst ... I2C ... SPI ... CAN ... LIN ... RS232/422/485/UART",
-    "confidence": "high"
-  },
-  "Vertikale Auflösung": {
-    "value": 8,
-    "unit": "bit",
-    "source_page": 22,
-    "source_region": "Vertical resolution ... 8 bits",
-    "confidence": "high"
-  },
-  "Anzahl Digitalkanäle": {
-    "value": 0,
-    "source_page": 4,
-    "source_region": "Digital channels ... 8 (MSO models or upgrade)",
-    "confidence": "high"
-  },
-  "Bildschirmgröße": {
-    "value": 21.59,
-    "unit": "cm",
-    "source_page": 22,
-    "source_region": "Display size and type ... 8.5-inch WVGA",
-    "confidence": "high"
-  },
-  "Bildschirmtyp": {
-    "pixel": {
-      "value": [
-        800,
-        480
-      ],
-      "unit": "pixels",
-      "source_page": 6,
-      "source_region": "WVGA 800 x 480",
-      "confidence": "high"
-    },
-    "screen_type": {
-      "value": "WVGA color TFT LCD",
-      "source_page": 25,
-      "source_region": "Display ... 8.5-inch WVGA color TFT LCD",
-      "confidence": "high"
-    }
-  },
-  "Schnittstellen": {
-    "relevant_interfaces": {
-      "value": [
-        "USB 2.0"
-      ],
-      "source_page": 27,
-      "source_region": "One USB 2.0 hi-speed device port ... Two USB 2.0 hi-speed host ports",
+      "source_region": "One USB 2.0 hi-speed device port... Two USB 2.0 hi-speed host ports",
       "confidence": "high"
     },
     "optionale_interfaces": {
@@ -2278,60 +1726,58 @@
         "VGA"
       ],
       "source_page": 27,
-      "source_region": "Optional ports ... GPIB, LAN, WVGA video out",
+      "source_region": "Optional ports... GPIB, LAN, WVGA video out",
       "confidence": "high"
     }
   },
   "unterstützende serielle Busse": {
     "value": [
+      "CAN",
+      "LIN",
       "I2C",
       "SPI",
-      "UART",
       "RS232",
-      "RS422",
-      "RS485",
-      "CAN",
-      "LIN"
+      "UART"
     ],
-    "source_page": 24,
-    "source_region": "I2C (optional) ... SPI (optional) ... CAN (optional) ... LIN (optional) ... RS232/422/485/UART (optional)",
+    "source_page": 4,
+    "source_region": "Yes (optional: CAN, LIN, I2C, SPI, RS232/UART)",
     "confidence": "high"
   },
   "Signalerfassungsrate": {
     "value": 200000,
     "unit": "wfms/s",
     "source_page": 22,
-    "source_region": "Waveform update rate ... 200,000 waveforms per second",
+    "source_region": "Waveform update rate... 200,000 waveforms per second",
     "confidence": "high"
   },
   "segmentierbarer Speicher": {
     "value": "Yes",
     "source_page": 4,
-    "source_region": "Segmented memory ... Yes (standard on DSO model)",
+    "source_region": "Segmented memory... Yes (standard on DSO model)",
     "confidence": "high"
   },
   "Funktionsgenerator": {
     "value": "Optional",
     "source_page": 4,
-    "source_region": "WaveGen ... Single-channel function only (option)",
+    "source_region": "WaveGen 20-MHz function/ arbitrary waveform generator... Single-channel function only (option)",
     "confidence": "high"
   },
   "DVM": {
     "value": "Yes",
     "source_page": 4,
-    "source_region": "Integrated digital voltmeter (standard) ... Yes",
+    "source_region": "Integrated digital voltmeter (standard)... Yes",
     "confidence": "high"
   },
   "Counter": {
     "value": "Yes",
-    "source_page": 27,
-    "source_region": "Frequency counter ... 5.5 digits",
+    "source_page": 4,
+    "source_region": "Integrated hardware counter (standard)... 5-digit frequency counter",
     "confidence": "high"
   },
   "Besonderheiten": {
-    "value": "Fully Upgradable Oscilloscope, MegaZoom IV custom ASIC technology",
-    "source_page": 2,
-    "source_region": "Get More Investment Protection with the Industry's Only Fully Upgradable Oscilloscope ... Breakthrough Technology for Budget Conscious Customers",
+    "value": "MegaZoom IV custom ASIC technology, hardware-based serial protocol decoding, fully upgradable",
+    "source_page": 7,
+    "source_region": "Keysight-designed MegaZoom IV custom ASIC technology... hardware-based serial protocol decoding",
     "confidence": "high"
   },
   "Abmessungen (L x B x H) (mm)": {
@@ -2342,19 +1788,19 @@
     ],
     "unit": "mm",
     "source_page": 28,
-    "source_region": "Dimensions (W x H x D) ... 381 mm (15 in) x 204 mm (8 in) x 142 mm (5.6 in)",
+    "source_region": "381 mm (15 in) x 204 mm (8 in) x 142 mm (5.6 in)",
     "confidence": "high"
   },
   "Gewicht (kg)": {
     "value": 3.9,
     "unit": "kg",
     "source_page": 28,
-    "source_region": "Weight ... Net: 3.9 kg",
+    "source_region": "Net: 3.9 kg (8.5 lbs.)",
     "confidence": "high"
   },
   "Garantie (Jahre)": {
     "value": null,
-    "unit": null,
+    "unit": "null",
     "source_page": null,
     "source_region": "Nicht gefunden",
     "confidence": "low"
@@ -2362,13 +1808,15 @@
   "Artikelnummer": {
     "value": "DSOX2002A",
     "source_page": 20,
-    "source_region": "Model number ... DSOX2002A",
+    "source_region": "InfiniiVision 2000 X-Series scopes... 2002A... DSOX",
     "confidence": "high"
   }
 }</t>
         </is>
       </c>
-      <c r="G30" s="9" t="n"/>
+      <c r="E30" s="14" t="n"/>
+      <c r="F30" s="14" t="n"/>
+      <c r="G30" s="6" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:Z25">
